--- a/aula11/modelo_livraria.xlsx
+++ b/aula11/modelo_livraria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd51511546e56099/Documentos/pasta_001_anderson_de_matos_guimaraes/pasta_01_aulas_e_cursos/pasta-senai/banco_dados_senai/aula11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{6EB9B796-5995-4875-95F7-B343B0CAC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A253DA8-9F7D-4AAF-8AC5-A05D5CFC67A8}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{6EB9B796-5995-4875-95F7-B343B0CAC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4F3740-F8F6-4804-840B-CA46528478FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD473F89-3B5B-424E-8601-33CEC398A463}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,14 +642,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,20 +655,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,11 +667,244 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="82">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -745,11 +960,312 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -813,16 +1329,9 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -848,10 +1357,317 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -863,6 +1679,292 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -889,7 +1991,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -902,6 +2004,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -924,7 +2028,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -943,6 +2047,102 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1004,11 +2204,253 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1076,235 +2518,285 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1331,7 +2823,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1340,6 +2832,37 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1349,30 +2872,100 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1398,7 +2991,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1407,127 +3000,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1550,27 +3022,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -1593,12 +3052,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1627,7 +3088,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1661,44 +3121,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1738,569 +3161,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2312,872 +3172,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3247,6 +3241,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}" name="Tabela1" displayName="Tabela1" ref="A4:E9" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A4:E9" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}">
@@ -3257,57 +3255,57 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A1B632B7-0824-427B-9504-1BE659BDDE03}" name="id_cliente" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{AB5E6CB1-C183-4FA7-93A6-A3D0C86256A7}" name="nome" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{798615A5-5715-4E07-A4C9-69F3E5D3CDB6}" name="CPF" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{1521F22B-A4D4-4EC1-903C-2C53C27DA145}" name="id_contato_cliente" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{A7D64D56-0CBF-45C1-B8D1-8C57C0F23C9B}" name="id_endereco_cliente" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{A1B632B7-0824-427B-9504-1BE659BDDE03}" name="id_cliente" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{AB5E6CB1-C183-4FA7-93A6-A3D0C86256A7}" name="nome" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{798615A5-5715-4E07-A4C9-69F3E5D3CDB6}" name="CPF" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{1521F22B-A4D4-4EC1-903C-2C53C27DA145}" name="id_contato_cliente" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{A7D64D56-0CBF-45C1-B8D1-8C57C0F23C9B}" name="id_endereco_cliente" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FA94D5B9-91FE-4C47-98C8-456C59CC5E85}" name="Tabela212" displayName="Tabela212" ref="A83:B88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="19" headerRowBorderDxfId="18">
-  <autoFilter ref="A83:B88" xr:uid="{FA94D5B9-91FE-4C47-98C8-456C59CC5E85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FA94D5B9-91FE-4C47-98C8-456C59CC5E85}" name="Tabela212" displayName="Tabela212" ref="A89:B94" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A89:B94" xr:uid="{FA94D5B9-91FE-4C47-98C8-456C59CC5E85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1759F23C-A31D-4466-9599-E3708A80FE61}" name="id_contato_cliente" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{1C155902-9803-499B-9B16-208F29CA3FB0}" name="telefone_pessoal" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1759F23C-A31D-4466-9599-E3708A80FE61}" name="id_contato_cliente" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1C155902-9803-499B-9B16-208F29CA3FB0}" name="telefone_pessoal" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{91EEDECF-12F7-48F5-9015-30BA226666CF}" name="Tabela513" displayName="Tabela513" ref="A51:C56" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A51:C56" xr:uid="{91EEDECF-12F7-48F5-9015-30BA226666CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{91EEDECF-12F7-48F5-9015-30BA226666CF}" name="Tabela513" displayName="Tabela513" ref="A53:C58" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4">
+  <autoFilter ref="A53:C58" xr:uid="{91EEDECF-12F7-48F5-9015-30BA226666CF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C8C6C0F8-6C4F-4255-9157-2B5D433B5D01}" name="id_livro_autor" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A06B2177-CC96-4ACB-A747-168A18BA939C}" name="id_livro" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{37B3DAD1-E071-4516-9146-7941BAE64F05}" name="id_autor" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C8C6C0F8-6C4F-4255-9157-2B5D433B5D01}" name="id_livro_autor" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A06B2177-CC96-4ACB-A747-168A18BA939C}" name="id_livro" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{37B3DAD1-E071-4516-9146-7941BAE64F05}" name="id_autor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}" name="Tabela2" displayName="Tabela2" ref="A12:C17" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}" name="Tabela2" displayName="Tabela2" ref="A12:C17" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73">
   <autoFilter ref="A12:C17" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C314440-5882-455E-8FCE-5635DE81F4B5}" name="id_contato_cliente" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{24EE34F9-0E66-47D0-AD80-ACB8586F48FB}" name="telefone_pessoal" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{2CF06135-B5FE-49E5-9ED6-5201D38BA2AC}" name="telefone_residencial" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{1C314440-5882-455E-8FCE-5635DE81F4B5}" name="id_contato_cliente" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{24EE34F9-0E66-47D0-AD80-ACB8586F48FB}" name="telefone_pessoal" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{2CF06135-B5FE-49E5-9ED6-5201D38BA2AC}" name="telefone_residencial" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}" name="Tabela3" displayName="Tabela3" ref="A20:H25" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}" name="Tabela3" displayName="Tabela3" ref="A20:H25" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67">
   <autoFilter ref="A20:H25" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3319,21 +3317,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EC5ACD2C-67AE-4DA6-84E5-5B3BA395CB2A}" name="id_endereco_cliente" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{54378415-E522-455A-9505-1E13203AD01F}" name="logradouro" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{0E6CD790-D796-4003-8B95-0A5C9F9C1B2F}" name="numero" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{F6978E98-5945-4867-AC61-0F25E859B6A3}" name="complemento" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{4A8D4879-B2DE-4415-87CE-5351A2430639}" name="bairro" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{0F18A217-6E1D-4700-AA01-D345312A4BF4}" name="cidade" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{2F839CBD-7306-42C9-8B25-92998D61AFEF}" name="UF" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{7D303E6A-EE0B-4AF2-9243-E6D12713CF83}" name="CEP" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{EC5ACD2C-67AE-4DA6-84E5-5B3BA395CB2A}" name="id_endereco_cliente" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{54378415-E522-455A-9505-1E13203AD01F}" name="logradouro" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{0E6CD790-D796-4003-8B95-0A5C9F9C1B2F}" name="numero" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{F6978E98-5945-4867-AC61-0F25E859B6A3}" name="complemento" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{4A8D4879-B2DE-4415-87CE-5351A2430639}" name="bairro" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{0F18A217-6E1D-4700-AA01-D345312A4BF4}" name="cidade" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{2F839CBD-7306-42C9-8B25-92998D61AFEF}" name="UF" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{7D303E6A-EE0B-4AF2-9243-E6D12713CF83}" name="CEP" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}" name="Tabela4" displayName="Tabela4" ref="A28:F33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="65" headerRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}" name="Tabela4" displayName="Tabela4" ref="A28:F33" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56">
   <autoFilter ref="A28:F33" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3343,101 +3341,101 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5A52B891-BEBC-436D-9340-19AF3CB4F66F}" name="id_livro" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{EE93EA49-A1F5-4CCF-8B7E-D019042E87CB}" name="nome" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A1E540D2-CCA2-46A0-A9F6-508EF958DA11}" name="assunto" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A8F690B9-DF79-4A0B-AE87-C361D36CF69E}" name="ISBN" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{BEB6EDC8-5A9E-42A0-A180-448478152311}" name="id_estoque" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{7476D45E-4DB4-4C92-9FB4-87C54D83175A}" name="id_editora" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5A52B891-BEBC-436D-9340-19AF3CB4F66F}" name="id_livro" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{EE93EA49-A1F5-4CCF-8B7E-D019042E87CB}" name="nome" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{A1E540D2-CCA2-46A0-A9F6-508EF958DA11}" name="assunto" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{A8F690B9-DF79-4A0B-AE87-C361D36CF69E}" name="ISBN" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{BEB6EDC8-5A9E-42A0-A180-448478152311}" name="id_estoque" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{7476D45E-4DB4-4C92-9FB4-87C54D83175A}" name="id_editora" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}" name="Tabela5" displayName="Tabela5" ref="A43:D48" totalsRowShown="0" headerRowDxfId="31" dataDxfId="63" headerRowBorderDxfId="64">
-  <autoFilter ref="A43:D48" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}" name="Tabela5" displayName="Tabela5" ref="A45:D50" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
+  <autoFilter ref="A45:D50" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C1E6D168-D9A5-4875-B00C-2D6381E5448B}" name="id_compra" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7D36314D-85A1-4667-BCC9-57F719A477A7}" name="data" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{79B0C739-223C-40D0-8865-06CE8F0C4204}" name="id_cliente" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{CDD8CF1C-B6A4-46B7-AA1E-0BEEB4ED510D}" name="id_livro" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{C1E6D168-D9A5-4875-B00C-2D6381E5448B}" name="id_compra" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{7D36314D-85A1-4667-BCC9-57F719A477A7}" name="data" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{79B0C739-223C-40D0-8865-06CE8F0C4204}" name="id_cliente" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{CDD8CF1C-B6A4-46B7-AA1E-0BEEB4ED510D}" name="id_livro" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}" name="Tabela6" displayName="Tabela6" ref="A67:D72" totalsRowShown="0" headerRowDxfId="20" dataDxfId="61" headerRowBorderDxfId="62">
-  <autoFilter ref="A67:D72" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}" name="Tabela6" displayName="Tabela6" ref="A69:D74" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A69:D74" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{947164C7-9E4F-40C7-AAE3-FC16A0100203}" name="id_editora" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{362B3C8D-8B8A-4939-83F2-6A15B82C0717}" name="nome" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9AA8DED8-CA50-4F84-8B7F-8AC8F5A4C621}" name="email" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1DD25990-9651-432B-AB1A-727414EF6BE3}" name="gerente_editora" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{947164C7-9E4F-40C7-AAE3-FC16A0100203}" name="id_editora" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{362B3C8D-8B8A-4939-83F2-6A15B82C0717}" name="nome" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{9AA8DED8-CA50-4F84-8B7F-8AC8F5A4C621}" name="email" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{1DD25990-9651-432B-AB1A-727414EF6BE3}" name="gerente_editora" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}" name="Tabela7" displayName="Tabela7" ref="A59:D64" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59">
-  <autoFilter ref="A59:D64" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}" name="Tabela7" displayName="Tabela7" ref="A61:D66" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33">
+  <autoFilter ref="A61:D66" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DEA8F65E-9DDE-4357-B836-F3E07231914F}" name="id_estoque" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{8231D7D2-7150-41F6-885B-2D82D8E79313}" name="total_estoque" dataDxfId="26">
-      <calculatedColumnFormula>SUM(C60,-D60)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DEA8F65E-9DDE-4357-B836-F3E07231914F}" name="id_estoque" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{8231D7D2-7150-41F6-885B-2D82D8E79313}" name="total_estoque" dataDxfId="30">
+      <calculatedColumnFormula>SUM(C62,-D62)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B4EE6D5C-33D8-4C51-9C83-360FAD07E917}" name="entrada" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{A3A1E21E-F522-44AC-9BF4-390829F0B706}" name="saída" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{B4EE6D5C-33D8-4C51-9C83-360FAD07E917}" name="entrada" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{A3A1E21E-F522-44AC-9BF4-390829F0B706}" name="saída" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9D5DCD97-C2E7-4CE0-9625-8DEB4F707696}" name="Tabela8" displayName="Tabela8" ref="A36:C40" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9D5DCD97-C2E7-4CE0-9625-8DEB4F707696}" name="Tabela8" displayName="Tabela8" ref="A36:C40" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A36:C40" xr:uid="{9D5DCD97-C2E7-4CE0-9625-8DEB4F707696}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C6EEA01-07C7-475E-ABBE-F526ABA65F6A}" name="id_autor" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{2E66A764-81BE-4CB9-A077-3D06AAFC222E}" name="nome" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{B73B3015-8875-4C48-A891-5CDC56A59660}" name="nacionalidade" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{0C6EEA01-07C7-475E-ABBE-F526ABA65F6A}" name="id_autor" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2E66A764-81BE-4CB9-A077-3D06AAFC222E}" name="nome" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B73B3015-8875-4C48-A891-5CDC56A59660}" name="nacionalidade" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CD9A6D52-BCA2-414B-9511-23E201D3F62E}" name="Tabela511" displayName="Tabela511" ref="A75:H80" totalsRowShown="0" headerRowDxfId="32" dataDxfId="40" headerRowBorderDxfId="39">
-  <autoFilter ref="A75:H80" xr:uid="{CD9A6D52-BCA2-414B-9511-23E201D3F62E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CD9A6D52-BCA2-414B-9511-23E201D3F62E}" name="Tabela511" displayName="Tabela511" ref="A77:H82" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20">
+  <autoFilter ref="A77:H82" xr:uid="{CD9A6D52-BCA2-414B-9511-23E201D3F62E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E45BDD8E-4322-4EC7-8D4F-387D1183DAC7}" name="id_endereco_editora" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CBF23E36-CDBA-4B15-8076-8EBE147011BD}" name="logradouro" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B54B4C74-9640-47FD-9950-8E24418A69F4}" name="numero" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{FAA25D73-6C07-4253-A8E8-14C721C9EF03}" name="complemento" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{7199CBB5-8F51-449B-BD86-963D2AE6C7F1}" name="bairro" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{E6113231-81FC-4A04-A7F2-0282C5551FCD}" name="cidade" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{7F752D4E-B654-40A7-B142-CBA6A9149DF2}" name="UF" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{575CE1CD-E308-401F-96B6-711E35B76F27}" name="CEP" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{E45BDD8E-4322-4EC7-8D4F-387D1183DAC7}" name="id_endereco_editora" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{CBF23E36-CDBA-4B15-8076-8EBE147011BD}" name="logradouro" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B54B4C74-9640-47FD-9950-8E24418A69F4}" name="numero" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{FAA25D73-6C07-4253-A8E8-14C721C9EF03}" name="complemento" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7199CBB5-8F51-449B-BD86-963D2AE6C7F1}" name="bairro" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{E6113231-81FC-4A04-A7F2-0282C5551FCD}" name="cidade" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{7F752D4E-B654-40A7-B142-CBA6A9149DF2}" name="UF" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{575CE1CD-E308-401F-96B6-711E35B76F27}" name="CEP" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3740,10 +3738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B8CCE-35DB-438B-8626-298111B37E03}">
-  <dimension ref="A1:H88"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,7 +4125,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -4145,7 +4146,6 @@
       <c r="F28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -4160,13 +4160,12 @@
       <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>1</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -4181,13 +4180,12 @@
       <c r="D30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="20">
         <v>2</v>
       </c>
-      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -4202,13 +4200,12 @@
       <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>3</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="20">
         <v>3</v>
       </c>
-      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -4223,15 +4220,14 @@
       <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>4</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="20">
         <v>4</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>5</v>
       </c>
@@ -4244,20 +4240,19 @@
       <c r="D33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>5</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="20">
         <v>5</v>
       </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -4265,7 +4260,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>98</v>
       </c>
@@ -4277,7 +4272,7 @@
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>1</v>
       </c>
@@ -4289,7 +4284,7 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2</v>
       </c>
@@ -4301,7 +4296,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>3</v>
       </c>
@@ -4313,7 +4308,7 @@
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>4</v>
       </c>
@@ -4325,669 +4320,657 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
         <v>1</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B46" s="7">
         <v>45354</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D46" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
         <v>2</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B47" s="7">
         <v>45519</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C47" s="11">
         <v>2</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D47" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
         <v>3</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B48" s="7">
         <v>45561</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C48" s="11">
         <v>3</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D48" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
         <v>4</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B49" s="7">
         <v>45566</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C49" s="11">
         <v>4</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D49" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
         <v>5</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B50" s="7">
         <v>45599</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C50" s="11">
         <v>5</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D50" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="23"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
         <v>1</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B54" s="14">
         <v>1</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C54" s="15">
         <v>1</v>
       </c>
-      <c r="D52" s="23"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
         <v>2</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B55" s="14">
         <v>2</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C55" s="15">
         <v>2</v>
       </c>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
         <v>3</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B56" s="14">
         <v>3</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C56" s="15">
         <v>3</v>
       </c>
-      <c r="D54" s="23"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
         <v>4</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B57" s="14">
         <v>4</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C57" s="15">
         <v>4</v>
       </c>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
         <v>5</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B58" s="14">
         <v>5</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C58" s="15">
         <v>5</v>
       </c>
-      <c r="D56" s="23"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
         <v>1</v>
       </c>
-      <c r="B60" s="2">
-        <f t="shared" ref="B60:B64" si="0">SUM(C60,-D60)</f>
+      <c r="B62" s="2">
+        <f t="shared" ref="B62:B66" si="0">SUM(C62,-D62)</f>
         <v>6</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C62" s="2">
         <v>13</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D62" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
         <v>2</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C63" s="2">
         <v>15</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D63" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
         <v>3</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C64" s="2">
         <v>22</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D64" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="19">
         <v>4</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C65" s="2">
         <v>33</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D65" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
         <v>5</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C66" s="2">
         <v>67</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D66" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
         <v>1</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
         <v>2</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
         <v>3</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
         <v>4</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="20">
         <v>5</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
         <v>1</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C78" s="2">
         <v>15</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
         <v>2</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C79" s="2">
         <v>33</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
-        <v>3</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="2">
-        <v>8497</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
-        <v>4</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1235</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
-        <v>5</v>
+      <c r="A80" s="23">
+        <v>3</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2">
-        <v>6</v>
+        <v>8497</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>4</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1235</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>5</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
         <v>1</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
         <v>3</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="24">
         <v>4</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
         <v>5</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88"/>
+      <c r="D94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
